--- a/project planner.xlsx
+++ b/project planner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670CC0DC-1A00-46EE-9683-2F4B47883A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5684E3-E160-4876-8FA0-551D2D6F3A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,11 +318,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
-    <numFmt numFmtId="165" formatCode="ddd\,\ m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="d"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
+    <numFmt numFmtId="167" formatCode="mmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="d"/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -705,7 +705,7 @@
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -714,10 +714,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyFill="0">
@@ -754,13 +754,13 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,10 +780,10 @@
     <xf numFmtId="9" fontId="5" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -795,10 +795,10 @@
     <xf numFmtId="9" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -810,10 +810,10 @@
     <xf numFmtId="9" fontId="5" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -828,10 +828,10 @@
     <xf numFmtId="9" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -894,16 +894,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="10">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="11" applyFill="1">
@@ -938,17 +938,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
@@ -956,44 +982,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1593,8 +1593,8 @@
   <dimension ref="A1:CN35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1608,13 +1608,13 @@
     <col min="7" max="7" width="2.68359375" customWidth="1"/>
     <col min="8" max="8" width="6.1015625" hidden="1" customWidth="1"/>
     <col min="9" max="24" width="2.5234375" customWidth="1"/>
-    <col min="25" max="26" width="2.5234375" style="85" customWidth="1"/>
+    <col min="25" max="26" width="2.5234375" style="79" customWidth="1"/>
     <col min="27" max="29" width="2.5234375" customWidth="1"/>
-    <col min="30" max="36" width="2.5234375" style="85" customWidth="1"/>
+    <col min="30" max="36" width="2.5234375" style="79" customWidth="1"/>
     <col min="37" max="37" width="2.5234375" customWidth="1"/>
-    <col min="38" max="38" width="2.5234375" style="85" customWidth="1"/>
+    <col min="38" max="38" width="2.5234375" style="79" customWidth="1"/>
     <col min="39" max="39" width="2.5234375" customWidth="1"/>
-    <col min="40" max="40" width="2.5234375" style="85" customWidth="1"/>
+    <col min="40" max="40" width="2.5234375" style="79" customWidth="1"/>
     <col min="41" max="92" width="2.5234375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1633,22 +1633,22 @@
       <c r="I1" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="95"/>
-      <c r="AI1" s="95"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="95"/>
-      <c r="AL1" s="95"/>
-      <c r="AM1" s="95"/>
-      <c r="AN1" s="95"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="86"/>
+      <c r="AN1" s="86"/>
     </row>
     <row r="2" spans="1:92" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="53" t="s">
@@ -1660,184 +1660,184 @@
       <c r="I2" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="95"/>
-      <c r="AH2" s="95"/>
-      <c r="AI2" s="95"/>
-      <c r="AJ2" s="95"/>
-      <c r="AK2" s="95"/>
-      <c r="AL2" s="95"/>
-      <c r="AM2" s="95"/>
-      <c r="AN2" s="95"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
     </row>
     <row r="3" spans="1:92" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="53" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="59"/>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="79">
+      <c r="D3" s="91"/>
+      <c r="E3" s="92">
         <v>44984</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="95"/>
-      <c r="AH3" s="95"/>
-      <c r="AI3" s="95"/>
-      <c r="AJ3" s="95"/>
-      <c r="AK3" s="95"/>
-      <c r="AL3" s="95"/>
-      <c r="AM3" s="95"/>
-      <c r="AN3" s="95"/>
+      <c r="F3" s="92"/>
+      <c r="Y3" s="86"/>
+      <c r="Z3" s="86"/>
+      <c r="AA3" s="86"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="86"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="86"/>
     </row>
     <row r="4" spans="1:92" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="76">
+      <c r="I4" s="87">
         <f>I5</f>
         <v>44984</v>
       </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="76">
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="87">
         <f>P5</f>
         <v>44991</v>
       </c>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="76">
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="87">
         <f>W5</f>
         <v>44998</v>
       </c>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="90">
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="93">
         <f>AD5</f>
         <v>45005</v>
       </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="76">
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="94"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="87">
         <f>AK5</f>
         <v>45012</v>
       </c>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="78"/>
-      <c r="AR4" s="76">
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="88"/>
+      <c r="AN4" s="88"/>
+      <c r="AO4" s="88"/>
+      <c r="AP4" s="88"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="87">
         <f>AR5</f>
         <v>45019</v>
       </c>
-      <c r="AS4" s="77"/>
-      <c r="AT4" s="77"/>
-      <c r="AU4" s="77"/>
-      <c r="AV4" s="77"/>
-      <c r="AW4" s="77"/>
-      <c r="AX4" s="78"/>
-      <c r="AY4" s="76">
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="88"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="88"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="87">
         <f>AY5</f>
         <v>45026</v>
       </c>
-      <c r="AZ4" s="77"/>
-      <c r="BA4" s="77"/>
-      <c r="BB4" s="77"/>
-      <c r="BC4" s="77"/>
-      <c r="BD4" s="77"/>
-      <c r="BE4" s="78"/>
-      <c r="BF4" s="76">
+      <c r="AZ4" s="88"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="88"/>
+      <c r="BC4" s="88"/>
+      <c r="BD4" s="88"/>
+      <c r="BE4" s="89"/>
+      <c r="BF4" s="87">
         <f>BF5</f>
         <v>45033</v>
       </c>
-      <c r="BG4" s="77"/>
-      <c r="BH4" s="77"/>
-      <c r="BI4" s="77"/>
-      <c r="BJ4" s="77"/>
-      <c r="BK4" s="77"/>
-      <c r="BL4" s="78"/>
-      <c r="BM4" s="76">
+      <c r="BG4" s="88"/>
+      <c r="BH4" s="88"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="88"/>
+      <c r="BK4" s="88"/>
+      <c r="BL4" s="89"/>
+      <c r="BM4" s="87">
         <f>BM5</f>
         <v>45040</v>
       </c>
-      <c r="BN4" s="77"/>
-      <c r="BO4" s="77"/>
-      <c r="BP4" s="77"/>
-      <c r="BQ4" s="77"/>
-      <c r="BR4" s="77"/>
-      <c r="BS4" s="78"/>
-      <c r="BT4" s="76">
+      <c r="BN4" s="88"/>
+      <c r="BO4" s="88"/>
+      <c r="BP4" s="88"/>
+      <c r="BQ4" s="88"/>
+      <c r="BR4" s="88"/>
+      <c r="BS4" s="89"/>
+      <c r="BT4" s="87">
         <f>BT5</f>
         <v>45047</v>
       </c>
-      <c r="BU4" s="77"/>
-      <c r="BV4" s="77"/>
-      <c r="BW4" s="77"/>
-      <c r="BX4" s="77"/>
-      <c r="BY4" s="77"/>
-      <c r="BZ4" s="78"/>
-      <c r="CA4" s="76">
+      <c r="BU4" s="88"/>
+      <c r="BV4" s="88"/>
+      <c r="BW4" s="88"/>
+      <c r="BX4" s="88"/>
+      <c r="BY4" s="88"/>
+      <c r="BZ4" s="89"/>
+      <c r="CA4" s="87">
         <f>CA5</f>
         <v>45054</v>
       </c>
-      <c r="CB4" s="77"/>
-      <c r="CC4" s="77"/>
-      <c r="CD4" s="77"/>
-      <c r="CE4" s="77"/>
-      <c r="CF4" s="77"/>
-      <c r="CG4" s="78"/>
-      <c r="CH4" s="76">
+      <c r="CB4" s="88"/>
+      <c r="CC4" s="88"/>
+      <c r="CD4" s="88"/>
+      <c r="CE4" s="88"/>
+      <c r="CF4" s="88"/>
+      <c r="CG4" s="89"/>
+      <c r="CH4" s="87">
         <f>CH5</f>
         <v>45061</v>
       </c>
-      <c r="CI4" s="77"/>
-      <c r="CJ4" s="77"/>
-      <c r="CK4" s="77"/>
-      <c r="CL4" s="77"/>
-      <c r="CM4" s="77"/>
-      <c r="CN4" s="78"/>
+      <c r="CI4" s="88"/>
+      <c r="CJ4" s="88"/>
+      <c r="CK4" s="88"/>
+      <c r="CL4" s="88"/>
+      <c r="CM4" s="88"/>
+      <c r="CN4" s="89"/>
     </row>
     <row r="5" spans="1:92" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="54" t="s">
@@ -1913,11 +1913,11 @@
         <f>W5+1</f>
         <v>44999</v>
       </c>
-      <c r="Y5" s="86">
+      <c r="Y5" s="80">
         <f t="shared" si="0"/>
         <v>45000</v>
       </c>
-      <c r="Z5" s="86">
+      <c r="Z5" s="80">
         <f t="shared" si="0"/>
         <v>45001</v>
       </c>
@@ -1933,31 +1933,31 @@
         <f t="shared" si="0"/>
         <v>45004</v>
       </c>
-      <c r="AD5" s="93">
+      <c r="AD5" s="84">
         <f>AC5+1</f>
         <v>45005</v>
       </c>
-      <c r="AE5" s="86">
+      <c r="AE5" s="80">
         <f>AD5+1</f>
         <v>45006</v>
       </c>
-      <c r="AF5" s="86">
+      <c r="AF5" s="80">
         <f t="shared" si="0"/>
         <v>45007</v>
       </c>
-      <c r="AG5" s="86">
+      <c r="AG5" s="80">
         <f t="shared" si="0"/>
         <v>45008</v>
       </c>
-      <c r="AH5" s="86">
+      <c r="AH5" s="80">
         <f t="shared" si="0"/>
         <v>45009</v>
       </c>
-      <c r="AI5" s="86">
+      <c r="AI5" s="80">
         <f t="shared" si="0"/>
         <v>45010</v>
       </c>
-      <c r="AJ5" s="94">
+      <c r="AJ5" s="85">
         <f t="shared" si="0"/>
         <v>45011</v>
       </c>
@@ -1965,7 +1965,7 @@
         <f>AJ5+1</f>
         <v>45012</v>
       </c>
-      <c r="AL5" s="86">
+      <c r="AL5" s="80">
         <f>AK5+1</f>
         <v>45013</v>
       </c>
@@ -1973,7 +1973,7 @@
         <f t="shared" si="0"/>
         <v>45014</v>
       </c>
-      <c r="AN5" s="86">
+      <c r="AN5" s="80">
         <f t="shared" si="0"/>
         <v>45015</v>
       </c>
@@ -2273,11 +2273,11 @@
         <f t="shared" si="24"/>
         <v>T</v>
       </c>
-      <c r="Y6" s="87" t="str">
+      <c r="Y6" s="81" t="str">
         <f t="shared" si="24"/>
         <v>W</v>
       </c>
-      <c r="Z6" s="87" t="str">
+      <c r="Z6" s="81" t="str">
         <f t="shared" si="24"/>
         <v>T</v>
       </c>
@@ -2293,31 +2293,31 @@
         <f t="shared" si="24"/>
         <v>S</v>
       </c>
-      <c r="AD6" s="87" t="str">
+      <c r="AD6" s="81" t="str">
         <f t="shared" si="24"/>
         <v>M</v>
       </c>
-      <c r="AE6" s="87" t="str">
+      <c r="AE6" s="81" t="str">
         <f t="shared" si="24"/>
         <v>T</v>
       </c>
-      <c r="AF6" s="87" t="str">
+      <c r="AF6" s="81" t="str">
         <f t="shared" si="24"/>
         <v>W</v>
       </c>
-      <c r="AG6" s="87" t="str">
+      <c r="AG6" s="81" t="str">
         <f t="shared" si="24"/>
         <v>T</v>
       </c>
-      <c r="AH6" s="87" t="str">
+      <c r="AH6" s="81" t="str">
         <f t="shared" si="24"/>
         <v>F</v>
       </c>
-      <c r="AI6" s="87" t="str">
+      <c r="AI6" s="81" t="str">
         <f t="shared" si="24"/>
         <v>S</v>
       </c>
-      <c r="AJ6" s="87" t="str">
+      <c r="AJ6" s="81" t="str">
         <f t="shared" si="24"/>
         <v>S</v>
       </c>
@@ -2325,7 +2325,7 @@
         <f t="shared" si="24"/>
         <v>M</v>
       </c>
-      <c r="AL6" s="87" t="str">
+      <c r="AL6" s="81" t="str">
         <f t="shared" si="24"/>
         <v>T</v>
       </c>
@@ -2333,7 +2333,7 @@
         <f t="shared" si="24"/>
         <v>W</v>
       </c>
-      <c r="AN6" s="87" t="str">
+      <c r="AN6" s="81" t="str">
         <f t="shared" si="24"/>
         <v>T</v>
       </c>
@@ -2572,22 +2572,22 @@
       <c r="V7" s="39"/>
       <c r="W7" s="39"/>
       <c r="X7" s="39"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
       <c r="AA7" s="39"/>
       <c r="AB7" s="39"/>
       <c r="AC7" s="39"/>
-      <c r="AD7" s="88"/>
-      <c r="AE7" s="88"/>
-      <c r="AF7" s="88"/>
-      <c r="AG7" s="88"/>
-      <c r="AH7" s="88"/>
-      <c r="AI7" s="88"/>
-      <c r="AJ7" s="88"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="82"/>
       <c r="AK7" s="39"/>
-      <c r="AL7" s="88"/>
+      <c r="AL7" s="82"/>
       <c r="AM7" s="39"/>
-      <c r="AN7" s="88"/>
+      <c r="AN7" s="82"/>
       <c r="AO7" s="39"/>
       <c r="AP7" s="39"/>
       <c r="AQ7" s="39"/>
@@ -2673,22 +2673,22 @@
       <c r="V8" s="39"/>
       <c r="W8" s="39"/>
       <c r="X8" s="39"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
       <c r="AA8" s="39"/>
       <c r="AB8" s="39"/>
       <c r="AC8" s="39"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="88"/>
-      <c r="AJ8" s="88"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
       <c r="AK8" s="39"/>
-      <c r="AL8" s="88"/>
+      <c r="AL8" s="82"/>
       <c r="AM8" s="39"/>
-      <c r="AN8" s="88"/>
+      <c r="AN8" s="82"/>
       <c r="AO8" s="39"/>
       <c r="AP8" s="39"/>
       <c r="AQ8" s="39"/>
@@ -2746,14 +2746,14 @@
       <c r="A9" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="76" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="65" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="60">
         <v>44988</v>
@@ -2782,22 +2782,22 @@
       <c r="V9" s="39"/>
       <c r="W9" s="39"/>
       <c r="X9" s="39"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
+      <c r="Y9" s="82"/>
+      <c r="Z9" s="82"/>
       <c r="AA9" s="39"/>
       <c r="AB9" s="39"/>
       <c r="AC9" s="39"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="88"/>
-      <c r="AF9" s="88"/>
-      <c r="AG9" s="88"/>
-      <c r="AH9" s="88"/>
-      <c r="AI9" s="88"/>
-      <c r="AJ9" s="88"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="82"/>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
       <c r="AK9" s="39"/>
-      <c r="AL9" s="88"/>
+      <c r="AL9" s="82"/>
       <c r="AM9" s="39"/>
-      <c r="AN9" s="88"/>
+      <c r="AN9" s="82"/>
       <c r="AO9" s="39"/>
       <c r="AP9" s="39"/>
       <c r="AQ9" s="39"/>
@@ -2855,14 +2855,14 @@
       <c r="A10" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="76" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="65" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="60">
         <v>44988</v>
@@ -2891,22 +2891,22 @@
       <c r="V10" s="40"/>
       <c r="W10" s="39"/>
       <c r="X10" s="39"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="88"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
       <c r="AA10" s="39"/>
       <c r="AB10" s="39"/>
       <c r="AC10" s="39"/>
-      <c r="AD10" s="88"/>
-      <c r="AE10" s="88"/>
-      <c r="AF10" s="88"/>
-      <c r="AG10" s="88"/>
-      <c r="AH10" s="88"/>
-      <c r="AI10" s="88"/>
-      <c r="AJ10" s="88"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
       <c r="AK10" s="39"/>
-      <c r="AL10" s="88"/>
+      <c r="AL10" s="82"/>
       <c r="AM10" s="39"/>
-      <c r="AN10" s="88"/>
+      <c r="AN10" s="82"/>
       <c r="AO10" s="39"/>
       <c r="AP10" s="39"/>
       <c r="AQ10" s="39"/>
@@ -2964,14 +2964,14 @@
       <c r="A11" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="76" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="65" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="60">
         <v>44988</v>
@@ -3000,22 +3000,22 @@
       <c r="V11" s="40"/>
       <c r="W11" s="39"/>
       <c r="X11" s="39"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
       <c r="AA11" s="39"/>
       <c r="AB11" s="39"/>
       <c r="AC11" s="39"/>
-      <c r="AD11" s="88"/>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="88"/>
-      <c r="AH11" s="88"/>
-      <c r="AI11" s="88"/>
-      <c r="AJ11" s="88"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="82"/>
       <c r="AK11" s="39"/>
-      <c r="AL11" s="88"/>
+      <c r="AL11" s="82"/>
       <c r="AM11" s="39"/>
-      <c r="AN11" s="88"/>
+      <c r="AN11" s="82"/>
       <c r="AO11" s="39"/>
       <c r="AP11" s="39"/>
       <c r="AQ11" s="39"/>
@@ -3071,14 +3071,14 @@
     </row>
     <row r="12" spans="1:92" s="3" customFormat="1" ht="47.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="53"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="76" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="65" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="60">
         <v>44992</v>
@@ -3107,22 +3107,22 @@
       <c r="V12" s="39"/>
       <c r="W12" s="39"/>
       <c r="X12" s="39"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="82"/>
       <c r="AA12" s="39"/>
       <c r="AB12" s="39"/>
       <c r="AC12" s="39"/>
-      <c r="AD12" s="88"/>
-      <c r="AE12" s="88"/>
-      <c r="AF12" s="88"/>
-      <c r="AG12" s="88"/>
-      <c r="AH12" s="88"/>
-      <c r="AI12" s="88"/>
-      <c r="AJ12" s="88"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="82"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="82"/>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="82"/>
       <c r="AK12" s="39"/>
-      <c r="AL12" s="88"/>
+      <c r="AL12" s="82"/>
       <c r="AM12" s="39"/>
-      <c r="AN12" s="88"/>
+      <c r="AN12" s="82"/>
       <c r="AO12" s="39"/>
       <c r="AP12" s="39"/>
       <c r="AQ12" s="39"/>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="13" spans="1:92" s="3" customFormat="1" ht="29.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="53"/>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="76" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="65" t="s">
@@ -3214,22 +3214,22 @@
       <c r="V13" s="39"/>
       <c r="W13" s="39"/>
       <c r="X13" s="39"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="88"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="82"/>
       <c r="AA13" s="39"/>
       <c r="AB13" s="39"/>
       <c r="AC13" s="39"/>
-      <c r="AD13" s="88"/>
-      <c r="AE13" s="88"/>
-      <c r="AF13" s="88"/>
-      <c r="AG13" s="88"/>
-      <c r="AH13" s="88"/>
-      <c r="AI13" s="88"/>
-      <c r="AJ13" s="88"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="82"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="82"/>
       <c r="AK13" s="39"/>
-      <c r="AL13" s="88"/>
+      <c r="AL13" s="82"/>
       <c r="AM13" s="39"/>
-      <c r="AN13" s="88"/>
+      <c r="AN13" s="82"/>
       <c r="AO13" s="39"/>
       <c r="AP13" s="39"/>
       <c r="AQ13" s="39"/>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="14" spans="1:92" s="3" customFormat="1" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="53"/>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="76" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="65" t="s">
@@ -3321,22 +3321,22 @@
       <c r="V14" s="39"/>
       <c r="W14" s="39"/>
       <c r="X14" s="39"/>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="88"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
       <c r="AA14" s="39"/>
       <c r="AB14" s="39"/>
       <c r="AC14" s="39"/>
-      <c r="AD14" s="88"/>
-      <c r="AE14" s="88"/>
-      <c r="AF14" s="88"/>
-      <c r="AG14" s="88"/>
-      <c r="AH14" s="88"/>
-      <c r="AI14" s="88"/>
-      <c r="AJ14" s="88"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="82"/>
       <c r="AK14" s="39"/>
-      <c r="AL14" s="88"/>
+      <c r="AL14" s="82"/>
       <c r="AM14" s="39"/>
-      <c r="AN14" s="88"/>
+      <c r="AN14" s="82"/>
       <c r="AO14" s="39"/>
       <c r="AP14" s="39"/>
       <c r="AQ14" s="39"/>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="15" spans="1:92" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="53"/>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="76" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="65"/>
@@ -3426,22 +3426,22 @@
       <c r="V15" s="39"/>
       <c r="W15" s="39"/>
       <c r="X15" s="39"/>
-      <c r="Y15" s="88"/>
-      <c r="Z15" s="88"/>
+      <c r="Y15" s="82"/>
+      <c r="Z15" s="82"/>
       <c r="AA15" s="39"/>
       <c r="AB15" s="39"/>
       <c r="AC15" s="39"/>
-      <c r="AD15" s="88"/>
-      <c r="AE15" s="88"/>
-      <c r="AF15" s="88"/>
-      <c r="AG15" s="88"/>
-      <c r="AH15" s="88"/>
-      <c r="AI15" s="88"/>
-      <c r="AJ15" s="88"/>
+      <c r="AD15" s="82"/>
+      <c r="AE15" s="82"/>
+      <c r="AF15" s="82"/>
+      <c r="AG15" s="82"/>
+      <c r="AH15" s="82"/>
+      <c r="AI15" s="82"/>
+      <c r="AJ15" s="82"/>
       <c r="AK15" s="39"/>
-      <c r="AL15" s="88"/>
+      <c r="AL15" s="82"/>
       <c r="AM15" s="39"/>
-      <c r="AN15" s="88"/>
+      <c r="AN15" s="82"/>
       <c r="AO15" s="39"/>
       <c r="AP15" s="39"/>
       <c r="AQ15" s="39"/>
@@ -3527,22 +3527,22 @@
       <c r="V16" s="39"/>
       <c r="W16" s="39"/>
       <c r="X16" s="39"/>
-      <c r="Y16" s="88"/>
-      <c r="Z16" s="88"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
       <c r="AA16" s="39"/>
       <c r="AB16" s="39"/>
       <c r="AC16" s="39"/>
-      <c r="AD16" s="88"/>
-      <c r="AE16" s="88"/>
-      <c r="AF16" s="88"/>
-      <c r="AG16" s="88"/>
-      <c r="AH16" s="88"/>
-      <c r="AI16" s="88"/>
-      <c r="AJ16" s="88"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="82"/>
+      <c r="AH16" s="82"/>
+      <c r="AI16" s="82"/>
+      <c r="AJ16" s="82"/>
       <c r="AK16" s="39"/>
-      <c r="AL16" s="88"/>
+      <c r="AL16" s="82"/>
       <c r="AM16" s="39"/>
-      <c r="AN16" s="88"/>
+      <c r="AN16" s="82"/>
       <c r="AO16" s="39"/>
       <c r="AP16" s="39"/>
       <c r="AQ16" s="39"/>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="17" spans="1:92" s="3" customFormat="1" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="54"/>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="77" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="67" t="s">
@@ -3634,22 +3634,22 @@
       <c r="V17" s="39"/>
       <c r="W17" s="39"/>
       <c r="X17" s="39"/>
-      <c r="Y17" s="88"/>
-      <c r="Z17" s="88"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
       <c r="AA17" s="39"/>
       <c r="AB17" s="39"/>
       <c r="AC17" s="39"/>
-      <c r="AD17" s="88"/>
-      <c r="AE17" s="88"/>
-      <c r="AF17" s="88"/>
-      <c r="AG17" s="88"/>
-      <c r="AH17" s="88"/>
-      <c r="AI17" s="88"/>
-      <c r="AJ17" s="88"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="82"/>
+      <c r="AF17" s="82"/>
+      <c r="AG17" s="82"/>
+      <c r="AH17" s="82"/>
+      <c r="AI17" s="82"/>
+      <c r="AJ17" s="82"/>
       <c r="AK17" s="39"/>
-      <c r="AL17" s="88"/>
+      <c r="AL17" s="82"/>
       <c r="AM17" s="39"/>
-      <c r="AN17" s="88"/>
+      <c r="AN17" s="82"/>
       <c r="AO17" s="39"/>
       <c r="AP17" s="39"/>
       <c r="AQ17" s="39"/>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="18" spans="1:92" s="3" customFormat="1" ht="51.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A18" s="53"/>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="77" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="67" t="s">
@@ -3741,22 +3741,22 @@
       <c r="V18" s="40"/>
       <c r="W18" s="39"/>
       <c r="X18" s="39"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
       <c r="AA18" s="39"/>
       <c r="AB18" s="39"/>
       <c r="AC18" s="39"/>
-      <c r="AD18" s="88"/>
-      <c r="AE18" s="88"/>
-      <c r="AF18" s="88"/>
-      <c r="AG18" s="88"/>
-      <c r="AH18" s="88"/>
-      <c r="AI18" s="88"/>
-      <c r="AJ18" s="88"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="82"/>
+      <c r="AH18" s="82"/>
+      <c r="AI18" s="82"/>
+      <c r="AJ18" s="82"/>
       <c r="AK18" s="39"/>
-      <c r="AL18" s="88"/>
+      <c r="AL18" s="82"/>
       <c r="AM18" s="39"/>
-      <c r="AN18" s="88"/>
+      <c r="AN18" s="82"/>
       <c r="AO18" s="39"/>
       <c r="AP18" s="39"/>
       <c r="AQ18" s="39"/>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="19" spans="1:92" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="53"/>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="77" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="67" t="s">
@@ -3848,22 +3848,22 @@
       <c r="V19" s="39"/>
       <c r="W19" s="39"/>
       <c r="X19" s="39"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
+      <c r="Y19" s="82"/>
+      <c r="Z19" s="82"/>
       <c r="AA19" s="39"/>
       <c r="AB19" s="39"/>
       <c r="AC19" s="39"/>
-      <c r="AD19" s="88"/>
-      <c r="AE19" s="88"/>
-      <c r="AF19" s="88"/>
-      <c r="AG19" s="88"/>
-      <c r="AH19" s="88"/>
-      <c r="AI19" s="88"/>
-      <c r="AJ19" s="88"/>
+      <c r="AD19" s="82"/>
+      <c r="AE19" s="82"/>
+      <c r="AF19" s="82"/>
+      <c r="AG19" s="82"/>
+      <c r="AH19" s="82"/>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="82"/>
       <c r="AK19" s="39"/>
-      <c r="AL19" s="88"/>
+      <c r="AL19" s="82"/>
       <c r="AM19" s="39"/>
-      <c r="AN19" s="88"/>
+      <c r="AN19" s="82"/>
       <c r="AO19" s="39"/>
       <c r="AP19" s="39"/>
       <c r="AQ19" s="39"/>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="20" spans="1:92" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="53"/>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="77" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="67" t="s">
@@ -3955,22 +3955,22 @@
       <c r="V20" s="39"/>
       <c r="W20" s="39"/>
       <c r="X20" s="39"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="88"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
       <c r="AA20" s="39"/>
       <c r="AB20" s="39"/>
       <c r="AC20" s="39"/>
-      <c r="AD20" s="88"/>
-      <c r="AE20" s="88"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="88"/>
-      <c r="AI20" s="88"/>
-      <c r="AJ20" s="88"/>
+      <c r="AD20" s="82"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="82"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="82"/>
+      <c r="AI20" s="82"/>
+      <c r="AJ20" s="82"/>
       <c r="AK20" s="39"/>
-      <c r="AL20" s="88"/>
+      <c r="AL20" s="82"/>
       <c r="AM20" s="39"/>
-      <c r="AN20" s="88"/>
+      <c r="AN20" s="82"/>
       <c r="AO20" s="39"/>
       <c r="AP20" s="39"/>
       <c r="AQ20" s="39"/>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="21" spans="1:92" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="53"/>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="77" t="s">
         <v>58</v>
       </c>
       <c r="C21" s="67" t="s">
@@ -4062,22 +4062,22 @@
       <c r="V21" s="39"/>
       <c r="W21" s="39"/>
       <c r="X21" s="39"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="88"/>
+      <c r="Y21" s="83"/>
+      <c r="Z21" s="82"/>
       <c r="AA21" s="39"/>
       <c r="AB21" s="39"/>
       <c r="AC21" s="39"/>
-      <c r="AD21" s="88"/>
-      <c r="AE21" s="88"/>
-      <c r="AF21" s="88"/>
-      <c r="AG21" s="88"/>
-      <c r="AH21" s="88"/>
-      <c r="AI21" s="88"/>
-      <c r="AJ21" s="88"/>
+      <c r="AD21" s="82"/>
+      <c r="AE21" s="82"/>
+      <c r="AF21" s="82"/>
+      <c r="AG21" s="82"/>
+      <c r="AH21" s="82"/>
+      <c r="AI21" s="82"/>
+      <c r="AJ21" s="82"/>
       <c r="AK21" s="39"/>
-      <c r="AL21" s="88"/>
+      <c r="AL21" s="82"/>
       <c r="AM21" s="39"/>
-      <c r="AN21" s="88"/>
+      <c r="AN21" s="82"/>
       <c r="AO21" s="39"/>
       <c r="AP21" s="39"/>
       <c r="AQ21" s="39"/>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="22" spans="1:92" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="53"/>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="77" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="67" t="s">
@@ -4169,22 +4169,22 @@
       <c r="V22" s="39"/>
       <c r="W22" s="39"/>
       <c r="X22" s="39"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
       <c r="AA22" s="39"/>
       <c r="AB22" s="39"/>
       <c r="AC22" s="39"/>
-      <c r="AD22" s="88"/>
-      <c r="AE22" s="88"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="88"/>
-      <c r="AI22" s="88"/>
-      <c r="AJ22" s="88"/>
+      <c r="AD22" s="82"/>
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="82"/>
+      <c r="AG22" s="82"/>
+      <c r="AH22" s="82"/>
+      <c r="AI22" s="82"/>
+      <c r="AJ22" s="82"/>
       <c r="AK22" s="39"/>
-      <c r="AL22" s="88"/>
+      <c r="AL22" s="82"/>
       <c r="AM22" s="39"/>
-      <c r="AN22" s="88"/>
+      <c r="AN22" s="82"/>
       <c r="AO22" s="39"/>
       <c r="AP22" s="39"/>
       <c r="AQ22" s="39"/>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="23" spans="1:92" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="53"/>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="77" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="67" t="s">
@@ -4277,22 +4277,22 @@
       <c r="V23" s="39"/>
       <c r="W23" s="39"/>
       <c r="X23" s="39"/>
-      <c r="Y23" s="88"/>
-      <c r="Z23" s="88"/>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
       <c r="AA23" s="39"/>
       <c r="AB23" s="39"/>
       <c r="AC23" s="39"/>
-      <c r="AD23" s="88"/>
-      <c r="AE23" s="88"/>
-      <c r="AF23" s="88"/>
-      <c r="AG23" s="88"/>
-      <c r="AH23" s="88"/>
-      <c r="AI23" s="88"/>
-      <c r="AJ23" s="88"/>
+      <c r="AD23" s="82"/>
+      <c r="AE23" s="82"/>
+      <c r="AF23" s="82"/>
+      <c r="AG23" s="82"/>
+      <c r="AH23" s="82"/>
+      <c r="AI23" s="82"/>
+      <c r="AJ23" s="82"/>
       <c r="AK23" s="39"/>
-      <c r="AL23" s="88"/>
+      <c r="AL23" s="82"/>
       <c r="AM23" s="39"/>
-      <c r="AN23" s="88"/>
+      <c r="AN23" s="82"/>
       <c r="AO23" s="39"/>
       <c r="AP23" s="39"/>
       <c r="AQ23" s="39"/>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="24" spans="1:92" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A24" s="53"/>
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="77" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="67" t="s">
@@ -4386,22 +4386,22 @@
       <c r="V24" s="39"/>
       <c r="W24" s="39"/>
       <c r="X24" s="39"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="88"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
       <c r="AA24" s="39"/>
       <c r="AB24" s="39"/>
       <c r="AC24" s="39"/>
-      <c r="AD24" s="88"/>
-      <c r="AE24" s="88"/>
-      <c r="AF24" s="88"/>
-      <c r="AG24" s="88"/>
-      <c r="AH24" s="88"/>
-      <c r="AI24" s="88"/>
-      <c r="AJ24" s="88"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="82"/>
+      <c r="AF24" s="82"/>
+      <c r="AG24" s="82"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="82"/>
       <c r="AK24" s="39"/>
-      <c r="AL24" s="88"/>
+      <c r="AL24" s="82"/>
       <c r="AM24" s="39"/>
-      <c r="AN24" s="88"/>
+      <c r="AN24" s="82"/>
       <c r="AO24" s="39"/>
       <c r="AP24" s="39"/>
       <c r="AQ24" s="39"/>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="25" spans="1:92" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A25" s="53"/>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="77" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="67" t="s">
@@ -4493,22 +4493,22 @@
       <c r="V25" s="39"/>
       <c r="W25" s="39"/>
       <c r="X25" s="39"/>
-      <c r="Y25" s="88"/>
-      <c r="Z25" s="88"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
       <c r="AA25" s="39"/>
       <c r="AB25" s="39"/>
       <c r="AC25" s="39"/>
-      <c r="AD25" s="88"/>
-      <c r="AE25" s="88"/>
-      <c r="AF25" s="88"/>
-      <c r="AG25" s="88"/>
-      <c r="AH25" s="88"/>
-      <c r="AI25" s="88"/>
-      <c r="AJ25" s="88"/>
+      <c r="AD25" s="82"/>
+      <c r="AE25" s="82"/>
+      <c r="AF25" s="82"/>
+      <c r="AG25" s="82"/>
+      <c r="AH25" s="82"/>
+      <c r="AI25" s="82"/>
+      <c r="AJ25" s="82"/>
       <c r="AK25" s="39"/>
-      <c r="AL25" s="88"/>
+      <c r="AL25" s="82"/>
       <c r="AM25" s="39"/>
-      <c r="AN25" s="88"/>
+      <c r="AN25" s="82"/>
       <c r="AO25" s="39"/>
       <c r="AP25" s="39"/>
       <c r="AQ25" s="39"/>
@@ -4594,22 +4594,22 @@
       <c r="V26" s="39"/>
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
       <c r="AA26" s="39"/>
       <c r="AB26" s="39"/>
       <c r="AC26" s="39"/>
-      <c r="AD26" s="88"/>
-      <c r="AE26" s="88"/>
-      <c r="AF26" s="88"/>
-      <c r="AG26" s="88"/>
-      <c r="AH26" s="88"/>
-      <c r="AI26" s="88"/>
-      <c r="AJ26" s="88"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
+      <c r="AF26" s="82"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="82"/>
+      <c r="AI26" s="82"/>
+      <c r="AJ26" s="82"/>
       <c r="AK26" s="39"/>
-      <c r="AL26" s="88"/>
+      <c r="AL26" s="82"/>
       <c r="AM26" s="39"/>
-      <c r="AN26" s="88"/>
+      <c r="AN26" s="82"/>
       <c r="AO26" s="39"/>
       <c r="AP26" s="39"/>
       <c r="AQ26" s="39"/>
@@ -4665,7 +4665,7 @@
     </row>
     <row r="27" spans="1:92" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="53"/>
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="78" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="69" t="s">
@@ -4701,22 +4701,22 @@
       <c r="V27" s="39"/>
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
-      <c r="Y27" s="88"/>
-      <c r="Z27" s="88"/>
+      <c r="Y27" s="82"/>
+      <c r="Z27" s="82"/>
       <c r="AA27" s="39"/>
       <c r="AB27" s="39"/>
       <c r="AC27" s="39"/>
-      <c r="AD27" s="88"/>
-      <c r="AE27" s="88"/>
-      <c r="AF27" s="88"/>
-      <c r="AG27" s="88"/>
-      <c r="AH27" s="88"/>
-      <c r="AI27" s="88"/>
-      <c r="AJ27" s="88"/>
+      <c r="AD27" s="82"/>
+      <c r="AE27" s="82"/>
+      <c r="AF27" s="82"/>
+      <c r="AG27" s="82"/>
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="82"/>
+      <c r="AJ27" s="82"/>
       <c r="AK27" s="39"/>
-      <c r="AL27" s="88"/>
+      <c r="AL27" s="82"/>
       <c r="AM27" s="39"/>
-      <c r="AN27" s="88"/>
+      <c r="AN27" s="82"/>
       <c r="AO27" s="39"/>
       <c r="AP27" s="39"/>
       <c r="AQ27" s="39"/>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="28" spans="1:92" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="53"/>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="78" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="69" t="s">
@@ -4808,22 +4808,22 @@
       <c r="V28" s="39"/>
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="82"/>
       <c r="AA28" s="39"/>
       <c r="AB28" s="39"/>
       <c r="AC28" s="39"/>
-      <c r="AD28" s="88"/>
-      <c r="AE28" s="88"/>
-      <c r="AF28" s="88"/>
-      <c r="AG28" s="88"/>
-      <c r="AH28" s="88"/>
-      <c r="AI28" s="88"/>
-      <c r="AJ28" s="88"/>
+      <c r="AD28" s="82"/>
+      <c r="AE28" s="82"/>
+      <c r="AF28" s="82"/>
+      <c r="AG28" s="82"/>
+      <c r="AH28" s="82"/>
+      <c r="AI28" s="82"/>
+      <c r="AJ28" s="82"/>
       <c r="AK28" s="39"/>
-      <c r="AL28" s="88"/>
+      <c r="AL28" s="82"/>
       <c r="AM28" s="39"/>
-      <c r="AN28" s="88"/>
+      <c r="AN28" s="82"/>
       <c r="AO28" s="39"/>
       <c r="AP28" s="39"/>
       <c r="AQ28" s="39"/>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="29" spans="1:92" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A29" s="53"/>
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="78" t="s">
         <v>69</v>
       </c>
       <c r="C29" s="69" t="s">
@@ -4915,22 +4915,22 @@
       <c r="V29" s="39"/>
       <c r="W29" s="39"/>
       <c r="X29" s="39"/>
-      <c r="Y29" s="88"/>
-      <c r="Z29" s="88"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="82"/>
       <c r="AA29" s="39"/>
       <c r="AB29" s="39"/>
       <c r="AC29" s="39"/>
-      <c r="AD29" s="88"/>
-      <c r="AE29" s="88"/>
-      <c r="AF29" s="88"/>
-      <c r="AG29" s="88"/>
-      <c r="AH29" s="88"/>
-      <c r="AI29" s="88"/>
-      <c r="AJ29" s="88"/>
+      <c r="AD29" s="82"/>
+      <c r="AE29" s="82"/>
+      <c r="AF29" s="82"/>
+      <c r="AG29" s="82"/>
+      <c r="AH29" s="82"/>
+      <c r="AI29" s="82"/>
+      <c r="AJ29" s="82"/>
       <c r="AK29" s="39"/>
-      <c r="AL29" s="88"/>
+      <c r="AL29" s="82"/>
       <c r="AM29" s="39"/>
-      <c r="AN29" s="88"/>
+      <c r="AN29" s="82"/>
       <c r="AO29" s="39"/>
       <c r="AP29" s="39"/>
       <c r="AQ29" s="39"/>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="30" spans="1:92" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A30" s="53"/>
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="78" t="s">
         <v>70</v>
       </c>
       <c r="C30" s="69" t="s">
@@ -5022,22 +5022,22 @@
       <c r="V30" s="39"/>
       <c r="W30" s="39"/>
       <c r="X30" s="39"/>
-      <c r="Y30" s="88"/>
-      <c r="Z30" s="88"/>
+      <c r="Y30" s="82"/>
+      <c r="Z30" s="82"/>
       <c r="AA30" s="39"/>
       <c r="AB30" s="39"/>
       <c r="AC30" s="39"/>
-      <c r="AD30" s="88"/>
-      <c r="AE30" s="88"/>
-      <c r="AF30" s="88"/>
-      <c r="AG30" s="88"/>
-      <c r="AH30" s="88"/>
-      <c r="AI30" s="88"/>
-      <c r="AJ30" s="88"/>
+      <c r="AD30" s="82"/>
+      <c r="AE30" s="82"/>
+      <c r="AF30" s="82"/>
+      <c r="AG30" s="82"/>
+      <c r="AH30" s="82"/>
+      <c r="AI30" s="82"/>
+      <c r="AJ30" s="82"/>
       <c r="AK30" s="39"/>
-      <c r="AL30" s="88"/>
+      <c r="AL30" s="82"/>
       <c r="AM30" s="39"/>
-      <c r="AN30" s="88"/>
+      <c r="AN30" s="82"/>
       <c r="AO30" s="39"/>
       <c r="AP30" s="39"/>
       <c r="AQ30" s="39"/>
@@ -5121,22 +5121,22 @@
       <c r="V31" s="39"/>
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
-      <c r="Y31" s="88"/>
-      <c r="Z31" s="88"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="82"/>
       <c r="AA31" s="39"/>
       <c r="AB31" s="39"/>
       <c r="AC31" s="39"/>
-      <c r="AD31" s="88"/>
-      <c r="AE31" s="88"/>
-      <c r="AF31" s="88"/>
-      <c r="AG31" s="88"/>
-      <c r="AH31" s="88"/>
-      <c r="AI31" s="88"/>
-      <c r="AJ31" s="88"/>
+      <c r="AD31" s="82"/>
+      <c r="AE31" s="82"/>
+      <c r="AF31" s="82"/>
+      <c r="AG31" s="82"/>
+      <c r="AH31" s="82"/>
+      <c r="AI31" s="82"/>
+      <c r="AJ31" s="82"/>
       <c r="AK31" s="39"/>
-      <c r="AL31" s="88"/>
+      <c r="AL31" s="82"/>
       <c r="AM31" s="39"/>
-      <c r="AN31" s="88"/>
+      <c r="AN31" s="82"/>
       <c r="AO31" s="39"/>
       <c r="AP31" s="39"/>
       <c r="AQ31" s="39"/>
@@ -5222,22 +5222,22 @@
       <c r="V32" s="41"/>
       <c r="W32" s="41"/>
       <c r="X32" s="41"/>
-      <c r="Y32" s="88"/>
-      <c r="Z32" s="88"/>
+      <c r="Y32" s="82"/>
+      <c r="Z32" s="82"/>
       <c r="AA32" s="41"/>
       <c r="AB32" s="41"/>
       <c r="AC32" s="41"/>
-      <c r="AD32" s="88"/>
-      <c r="AE32" s="88"/>
-      <c r="AF32" s="88"/>
-      <c r="AG32" s="88"/>
-      <c r="AH32" s="88"/>
-      <c r="AI32" s="88"/>
-      <c r="AJ32" s="88"/>
+      <c r="AD32" s="82"/>
+      <c r="AE32" s="82"/>
+      <c r="AF32" s="82"/>
+      <c r="AG32" s="82"/>
+      <c r="AH32" s="82"/>
+      <c r="AI32" s="82"/>
+      <c r="AJ32" s="82"/>
       <c r="AK32" s="41"/>
-      <c r="AL32" s="88"/>
+      <c r="AL32" s="82"/>
       <c r="AM32" s="41"/>
-      <c r="AN32" s="88"/>
+      <c r="AN32" s="82"/>
       <c r="AO32" s="41"/>
       <c r="AP32" s="41"/>
       <c r="AQ32" s="41"/>
